--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed5/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.194599999999999</v>
+        <v>-7.237799999999997</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.38379999999999</v>
+        <v>-10.24699999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.122299999999995</v>
+        <v>-7.117499999999993</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.5965</v>
+        <v>-12.5522</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.193199999999997</v>
+        <v>-7.099199999999997</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.7754</v>
+        <v>-21.84850000000001</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5283</v>
+        <v>-21.5158</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.2876</v>
+        <v>-13.2525</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.8245</v>
+        <v>-21.78399999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.369899999999994</v>
+        <v>-8.149099999999997</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.390599999999999</v>
+        <v>-7.635399999999995</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.435300000000002</v>
+        <v>-7.566599999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.832700000000001</v>
+        <v>-7.596400000000002</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.0747</v>
+        <v>-12.88400000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.8443</v>
+        <v>-21.91160000000001</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.805099999999996</v>
+        <v>-8.757599999999998</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.7431</v>
+        <v>-21.73409999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.932399999999999</v>
+        <v>-7.980399999999999</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.069800000000004</v>
+        <v>-7.066300000000004</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.5139</v>
+        <v>-21.539</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.4145</v>
+        <v>-13.021</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.6928</v>
+        <v>-21.66300000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.467600000000001</v>
+        <v>-8.253500000000006</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.86470000000001</v>
+        <v>-12.52080000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.47689999999999</v>
+        <v>-20.6175</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.11159999999999</v>
+        <v>-13.86779999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5003</v>
+        <v>-19.3145</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.09270000000001</v>
+        <v>-12.87780000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.9177</v>
+        <v>-14.0709</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.142900000000002</v>
+        <v>-7.258700000000002</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.07449999999999</v>
+        <v>-14.29609999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.62690000000001</v>
+        <v>-21.59000000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.435200000000001</v>
+        <v>-7.481699999999997</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.82380000000001</v>
+        <v>-10.8627</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.58339999999999</v>
+        <v>-21.5511</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.31980000000002</v>
+        <v>-22.19670000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.15170000000001</v>
+        <v>-22.10990000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.61629999999999</v>
+        <v>-14.59829999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.347799999999994</v>
+        <v>-8.037599999999998</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.49119999999999</v>
+        <v>-8.290499999999987</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.53689999999998</v>
+        <v>-21.52909999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6852</v>
+        <v>-21.75099999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.56229999999998</v>
+        <v>-21.48089999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.9887</v>
+        <v>-19.96840000000001</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.679599999999999</v>
+        <v>-5.7643</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.687300000000002</v>
+        <v>-7.451700000000001</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.53909999999999</v>
+        <v>-12.7172</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.64309999999999</v>
+        <v>-21.65309999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-11.9593</v>
+        <v>-12.01090000000001</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.426100000000003</v>
+        <v>-8.601099999999997</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.33350000000002</v>
+        <v>-22.15780000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.982699999999997</v>
+        <v>-6.129499999999998</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.49960000000002</v>
+        <v>-21.4587</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.940999999999998</v>
+        <v>-6.126999999999996</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.012899999999998</v>
+        <v>-6.015199999999997</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.2339</v>
+        <v>-21.29419999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.338100000000003</v>
+        <v>-7.377700000000004</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.51749999999999</v>
+        <v>-20.52209999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.3656</v>
+        <v>-12.5552</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-14.28619999999999</v>
+        <v>-14.375</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.9489</v>
+        <v>-7.889700000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
